--- a/helper/User_Journey.xlsx
+++ b/helper/User_Journey.xlsx
@@ -175,7 +175,7 @@
     <t>FOH-Op-Leasing-Get-Delivery</t>
   </si>
   <si>
-    <t>FOH-Op-Leasing-Use-Car,FOH-Op-Leasing-Use-Car</t>
+    <t>FOH-Op-Leasing-Use-Car</t>
   </si>
   <si>
     <t>FOH-Fin-Leasing-Return-Car</t>

--- a/helper/User_Journey.xlsx
+++ b/helper/User_Journey.xlsx
@@ -109,7 +109,7 @@
     <t>TD_Process</t>
   </si>
   <si>
-    <t>LINK</t>
+    <t>Click Me</t>
   </si>
   <si>
     <t>Subscription</t>

--- a/helper/User_Journey.xlsx
+++ b/helper/User_Journey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>User_Journey</t>
   </si>
@@ -197,63 +197,6 @@
   </si>
   <si>
     <t>FOH-Subscription-Test-Drive,FOH-Subscription-Place-Order,FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order</t>
-  </si>
-  <si>
-    <t>User_Subscribes_to_newsletter</t>
-  </si>
-  <si>
-    <t>User_experiences_normal_testdrive,User_experiences_2D_testdrive,User_books_testdrive,User_modifies_or_cancels_testdrive</t>
-  </si>
-  <si>
-    <t>User_creates_subscription_order,User_wants_to_change_delivery_date_of_subscription_order</t>
-  </si>
-  <si>
-    <t>User_experiences_Subscription_Delivery,User_orders_something_from_NIO_cafe</t>
-  </si>
-  <si>
-    <t>User_uses_power_swap_with_subscription_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation,User_service_booking,User_service_rescheduling,User_service_cancellation,User_RSA_booking</t>
-  </si>
-  <si>
-    <t>User_returns_a_subscription_car</t>
-  </si>
-  <si>
-    <t>User_creates_Purchase_order,User_wants_to_change_delivery_date_of_purchas_eorder</t>
-  </si>
-  <si>
-    <t>User_experiences_Purchase_Delivery</t>
-  </si>
-  <si>
-    <t>User_uses_power_swap_with_purchased_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation</t>
-  </si>
-  <si>
-    <t>User_returns_a_Op-leasing_car</t>
-  </si>
-  <si>
-    <t>User_creates_Operational_Leasing_order,User_wants_to_change_delivery_date_of_operational_leasing_order</t>
-  </si>
-  <si>
-    <t>User_experiences_Operational_Leasing_Delivery</t>
-  </si>
-  <si>
-    <t>User_uses_power_swap_with_opertional_leasing_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation</t>
-  </si>
-  <si>
-    <t>User_creates_Financial_Leasing_order,User_wants_to_change_delivery_date_of_financial_leasing_order</t>
-  </si>
-  <si>
-    <t>User_experiences_Financial_Leasing_Delivery</t>
-  </si>
-  <si>
-    <t>User_uses_power_swap_with_financial_leasing_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation</t>
-  </si>
-  <si>
-    <t>User_returns_a_Fin-leasing_car</t>
-  </si>
-  <si>
-    <t>User_expriences_an_accident_and_calls_for_help,User_performs_a_FOTA_upgrade,User_asks_SCR_due_to_power_problem,User_buys_NIO_Life_online_or_offline,User_wants_to_return_NIO_Life,User_wants_to_cancel_or_modify_NIO_Life_order,User_books_a_NIO_event_on_NIO_app,User_attends_a_NIO_event,User_calls_hotline_to_claim_NIO_points,User_engages_in_NIO_app_posts_and_comments,User_gives_a_rating_in_5_Star_Rating,User_leaves_a_message_in_Debug_or_wit_NOMI,User_contacts_SCR_to_delete_NIO_account,User_orders_something_from_NIO_cafe,User_books_a_space_in_NIO_house,User_shares_his_refererral_code,User_checks_in_to_receive_NIO_Point,User_uses_APP_to_remote_control_his_car,User_mutually_follows_a_NIO_employee_on_NIO_app,User_comments_on_NIO_SM_channel,User_wants_to_cooperate_with_NIO,User_asks_about_car_or_price_or_model_etc_,User_wants_gives_feedback_to_NIO_employee</t>
-  </si>
-  <si>
-    <t>User_experiences_normal_testdrive,User_books_testdrive,User_modifies_or_cancels_testdrive</t>
   </si>
   <si>
     <t>Sizhe HUANG,Sven Conrad,Manuel Endres</t>
@@ -656,9 +599,6 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -676,9 +616,6 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -696,9 +633,6 @@
       <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -716,9 +650,6 @@
       <c r="E5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -736,9 +667,6 @@
       <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -756,9 +684,6 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -776,9 +701,6 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -796,9 +718,6 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -816,9 +735,6 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -836,9 +752,6 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="F11" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -856,9 +769,6 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="F12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -876,9 +786,6 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -896,9 +803,6 @@
       <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="F14" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -916,9 +820,6 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -936,9 +837,6 @@
       <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
@@ -956,9 +854,6 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -976,9 +871,6 @@
       <c r="E18" t="s">
         <v>53</v>
       </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
@@ -996,9 +888,6 @@
       <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -1016,9 +905,6 @@
       <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -1036,9 +922,6 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
@@ -1056,9 +939,6 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
@@ -1076,9 +956,6 @@
       <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
@@ -1096,9 +973,6 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
@@ -1113,9 +987,6 @@
       <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F25" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
@@ -1133,11 +1004,8 @@
       <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7">

--- a/helper/User_Journey.xlsx
+++ b/helper/User_Journey.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>User_Journey</t>
   </si>
@@ -197,6 +197,63 @@
   </si>
   <si>
     <t>FOH-Subscription-Test-Drive,FOH-Subscription-Place-Order,FOH-Purchase-Create-Leads,FOH-Purchase-Test-Drive,FOH-Purchase-Place-Order,FOH-Op-Leasing-Create-Leads,FOH-Op-Leasing-Test-Drive,FOH-Op-Leasing-Place-Order,FOH-Fin-Leasing-Create-Leads,FOH-Fin-Leasing-Test-Drive,FOH-Fin-Leasing-Place-Order</t>
+  </si>
+  <si>
+    <t>User_Subscribes_to_newsletter</t>
+  </si>
+  <si>
+    <t>User_experiences_normal_testdrive,User_experiences_2D_testdrive,User_books_testdrive,User_modifies_or_cancels_testdrive</t>
+  </si>
+  <si>
+    <t>User_creates_subscription_order,User_wants_to_change_delivery_date_of_subscription_order</t>
+  </si>
+  <si>
+    <t>User_experiences_Subscription_Delivery,User_orders_something_from_NIO_cafe</t>
+  </si>
+  <si>
+    <t>User_uses_power_swap_with_subscription_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation,User_service_booking,User_service_rescheduling,User_service_cancellation,User_RSA_booking</t>
+  </si>
+  <si>
+    <t>User_returns_a_subscription_car</t>
+  </si>
+  <si>
+    <t>User_creates_Purchase_order,User_wants_to_change_delivery_date_of_purchas_eorder</t>
+  </si>
+  <si>
+    <t>User_experiences_Purchase_Delivery</t>
+  </si>
+  <si>
+    <t>User_uses_power_swap_with_purchased_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation</t>
+  </si>
+  <si>
+    <t>User_returns_a_Op-leasing_car</t>
+  </si>
+  <si>
+    <t>User_creates_Operational_Leasing_order,User_wants_to_change_delivery_date_of_operational_leasing_order</t>
+  </si>
+  <si>
+    <t>User_experiences_Operational_Leasing_Delivery</t>
+  </si>
+  <si>
+    <t>User_uses_power_swap_with_opertional_leasing_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation</t>
+  </si>
+  <si>
+    <t>User_creates_Financial_Leasing_order,User_wants_to_change_delivery_date_of_financial_leasing_order</t>
+  </si>
+  <si>
+    <t>User_experiences_Financial_Leasing_Delivery</t>
+  </si>
+  <si>
+    <t>User_uses_power_swap_with_financial_leasing_car,User_activates_power_home_charger,User_uses_home_charger_and_super_charger,User_uses_charging_map,User_books_a_service_order,User_wants_to_change_service_date,User_gets_called_for_a_service_campaign,User_buys_a_NIO_accessory,User_wants_to_settle_insurance_case,User_wants_to_change_tire,User_wants_yearly_maintenance_check,User_get_charged_for_a_ticket_violation</t>
+  </si>
+  <si>
+    <t>User_returns_a_Fin-leasing_car</t>
+  </si>
+  <si>
+    <t>User_expriences_an_accident_and_calls_for_help,User_performs_a_FOTA_upgrade,User_asks_SCR_due_to_power_problem,User_buys_NIO_Life_online_or_offline,User_wants_to_return_NIO_Life,User_wants_to_cancel_or_modify_NIO_Life_order,User_books_a_NIO_event_on_NIO_app,User_attends_a_NIO_event,User_calls_hotline_to_claim_NIO_points,User_engages_in_NIO_app_posts_and_comments,User_gives_a_rating_in_5_Star_Rating,User_leaves_a_message_in_Debug_or_wit_NOMI,User_contacts_SCR_to_delete_NIO_account,User_orders_something_from_NIO_cafe,User_books_a_space_in_NIO_house,User_shares_his_refererral_code,User_checks_in_to_receive_NIO_Point,User_uses_APP_to_remote_control_his_car,User_mutually_follows_a_NIO_employee_on_NIO_app,User_comments_on_NIO_SM_channel,User_wants_to_cooperate_with_NIO,User_asks_about_car_or_price_or_model_etc_,User_wants_gives_feedback_to_NIO_employee</t>
+  </si>
+  <si>
+    <t>User_experiences_normal_testdrive,User_books_testdrive,User_modifies_or_cancels_testdrive</t>
   </si>
   <si>
     <t>Sizhe HUANG,Sven Conrad,Manuel Endres</t>
@@ -599,6 +656,9 @@
       <c r="E2" t="s">
         <v>37</v>
       </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
@@ -616,6 +676,9 @@
       <c r="E3" t="s">
         <v>38</v>
       </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -633,6 +696,9 @@
       <c r="E4" t="s">
         <v>39</v>
       </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -650,6 +716,9 @@
       <c r="E5" t="s">
         <v>40</v>
       </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
@@ -667,6 +736,9 @@
       <c r="E6" t="s">
         <v>41</v>
       </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
@@ -684,6 +756,9 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
@@ -701,6 +776,9 @@
       <c r="E8" t="s">
         <v>43</v>
       </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
@@ -718,6 +796,9 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
+      <c r="F9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -735,6 +816,9 @@
       <c r="E10" t="s">
         <v>45</v>
       </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -752,6 +836,9 @@
       <c r="E11" t="s">
         <v>46</v>
       </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -769,6 +856,9 @@
       <c r="E12" t="s">
         <v>47</v>
       </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
@@ -786,6 +876,9 @@
       <c r="E13" t="s">
         <v>48</v>
       </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
@@ -803,6 +896,9 @@
       <c r="E14" t="s">
         <v>49</v>
       </c>
+      <c r="F14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -820,6 +916,9 @@
       <c r="E15" t="s">
         <v>50</v>
       </c>
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -837,6 +936,9 @@
       <c r="E16" t="s">
         <v>51</v>
       </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
@@ -854,6 +956,9 @@
       <c r="E17" t="s">
         <v>52</v>
       </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
@@ -871,6 +976,9 @@
       <c r="E18" t="s">
         <v>53</v>
       </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
@@ -888,6 +996,9 @@
       <c r="E19" t="s">
         <v>54</v>
       </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -905,6 +1016,9 @@
       <c r="E20" t="s">
         <v>55</v>
       </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -922,6 +1036,9 @@
       <c r="E21" t="s">
         <v>56</v>
       </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
@@ -939,6 +1056,9 @@
       <c r="E22" t="s">
         <v>57</v>
       </c>
+      <c r="F22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
@@ -956,6 +1076,9 @@
       <c r="E23" t="s">
         <v>58</v>
       </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
@@ -973,6 +1096,9 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
@@ -987,6 +1113,9 @@
       <c r="E25" t="s">
         <v>29</v>
       </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
@@ -1004,8 +1133,11 @@
       <c r="E26" t="s">
         <v>60</v>
       </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7">
